--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-185551.6061519495</v>
+        <v>-187439.1876683515</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>354.4544161623946</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>47.78437092417262</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>17.1565667452055</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>201.089163843681</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>92.93819859881197</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>82.5995718321566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>70.03735562253975</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>218.5665074910854</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>59.33415364820872</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>170.9932972546178</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>20.16013205738688</v>
+        <v>185.6866245166076</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>135.2597812223491</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>88.70212691485014</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890415</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1768,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151914</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>46.18719652447294</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>38.5974404355336</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>178.7699890365988</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750033</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>17.78458198347545</v>
+        <v>6.207194571421979</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002173</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>195.3170818870011</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.62872355338</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700705</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965519</v>
+        <v>93.41221638965504</v>
       </c>
       <c r="E31" t="n">
-        <v>91.230706018012</v>
+        <v>91.23070601801186</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437407</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348203</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897896</v>
+        <v>93.71057173897881</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571482</v>
+        <v>55.21598883571468</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523563</v>
+        <v>54.76109577523548</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550459</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298319</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.03409577002</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080337</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.5063987604798</v>
       </c>
       <c r="Y31" t="n">
-        <v>25.65882991138611</v>
+        <v>142.3046092405554</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3044,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373725</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>837.1179892781315</v>
+        <v>1275.524362591491</v>
       </c>
       <c r="C2" t="n">
-        <v>837.1179892781315</v>
+        <v>906.5618456510797</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>906.5618456510797</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>906.5618456510797</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2593.853360211167</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2593.853360211167</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2340.091574849259</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2340.091574849259</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>1987.322919579145</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X2" t="n">
-        <v>1613.857161318065</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y2" t="n">
-        <v>1223.717829342253</v>
+        <v>1662.124202655613</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,28 +4410,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218.1627947174723</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>218.1627947174723</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4519,19 +4519,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610024</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610024</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.1627947174723</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2118.304160219349</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4598,19 +4598,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2118.304160219349</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2118.304160219349</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="X5" t="n">
-        <v>2118.304160219349</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="Y5" t="n">
-        <v>2118.304160219349</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="6">
@@ -4656,19 +4656,19 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>170.3443099123612</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="X7" t="n">
-        <v>351.9927747426009</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.9927747426009</v>
+        <v>359.2080756496231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1370.76667303138</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C8" t="n">
-        <v>1370.76667303138</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D8" t="n">
-        <v>1012.500974424629</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>1012.500974424629</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
         <v>952.5674858910851</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.971603332393</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="X8" t="n">
-        <v>2147.505845071313</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="Y8" t="n">
-        <v>1757.366513095501</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>493.4767912696608</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="V10" t="n">
-        <v>493.4767912696608</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="W10" t="n">
-        <v>204.0596212327002</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="X10" t="n">
-        <v>204.0596212327002</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.0596212327002</v>
+        <v>540.5667372199621</v>
       </c>
     </row>
     <row r="11">
@@ -5127,7 +5127,7 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>549.6692635248396</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="C13" t="n">
-        <v>380.7330805969327</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>380.7330805969327</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>380.7330805969327</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>233.8431330990224</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>233.8431330990224</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,7 +5200,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799364</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609662</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550793</v>
+        <v>874.5376338299877</v>
       </c>
       <c r="W13" t="n">
-        <v>731.3177283550793</v>
+        <v>874.5376338299877</v>
       </c>
       <c r="X13" t="n">
-        <v>731.3177283550793</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="Y13" t="n">
-        <v>731.3177283550793</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5270,10 +5270,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823786</v>
@@ -5300,28 +5300,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5343,25 +5343,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643586</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799363</v>
@@ -5449,7 +5449,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609662</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550793</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181187</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y16" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,16 +5498,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5516,7 +5516,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5610,10 +5610,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>284.117498613925</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>284.117498613925</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5674,13 +5674,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247857</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247857</v>
+        <v>1009.867621687012</v>
       </c>
       <c r="V19" t="n">
-        <v>783.5599953231707</v>
+        <v>755.1831334811254</v>
       </c>
       <c r="W19" t="n">
-        <v>494.1428252862101</v>
+        <v>465.7659634441648</v>
       </c>
       <c r="X19" t="n">
-        <v>266.1532743881928</v>
+        <v>465.7659634441648</v>
       </c>
       <c r="Y19" t="n">
-        <v>266.1532743881928</v>
+        <v>465.7659634441648</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,16 +5768,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550792</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,22 +5972,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
@@ -6005,10 +6005,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1281.032036247722</v>
+        <v>1181.651263528793</v>
       </c>
       <c r="U25" t="n">
-        <v>991.90339746128</v>
+        <v>892.5226247423514</v>
       </c>
       <c r="V25" t="n">
-        <v>737.2189092553931</v>
+        <v>892.5226247423514</v>
       </c>
       <c r="W25" t="n">
-        <v>447.8017392184324</v>
+        <v>892.5226247423514</v>
       </c>
       <c r="X25" t="n">
-        <v>447.8017392184324</v>
+        <v>892.5226247423514</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.8017392184324</v>
+        <v>671.7300455988212</v>
       </c>
     </row>
     <row r="26">
@@ -6206,25 +6206,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6306,19 +6306,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028576</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028576</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028576</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028576</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>877.9208635589189</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>623.236375353032</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>623.236375353032</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215245</v>
+        <v>659.745737204984</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749884</v>
+        <v>546.5704195584482</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440236</v>
+        <v>452.2146454274834</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430013</v>
+        <v>360.0624171264614</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264618</v>
+        <v>360.0624171264614</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>247.647960727653</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>152.9908175569673</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933507</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667516</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.6688721962061</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021649</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899273</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096196</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.628130167073</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356662003</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1335.260356662003</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818945</v>
+        <v>1101.604051906414</v>
       </c>
       <c r="X31" t="n">
-        <v>902.6804289818945</v>
+        <v>929.3753662897673</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703934</v>
+        <v>785.6333367538527</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103128</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
         <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7108,10 +7108,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384657</v>
@@ -7120,7 +7120,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7169,13 +7169,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,19 +7184,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,13 +7354,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,40 +7400,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083204</v>
@@ -7558,28 +7558,28 @@
         <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,49 +7631,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7786,37 +7786,37 @@
         <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7828,13 +7828,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010317</v>
@@ -8058,7 +8058,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8775,10 +8775,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>13.65404714518698</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>163.4355164089779</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,10 +23656,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>179.5224588645642</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>110.0180325826788</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>73.36765428722921</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518774</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>203.7629790749136</v>
+        <v>215.3403664869673</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,10 +24604,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24649,19 +24649,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>90.92027051157622</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437393</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>196.9343866952707</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>137.7225668121515</v>
+        <v>21.07678748298207</v>
       </c>
     </row>
     <row r="32">
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-2.009503802257291e-13</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>266838.5752058921</v>
+      </c>
+      <c r="C2" t="n">
         <v>266838.5752058923</v>
       </c>
-      <c r="C2" t="n">
-        <v>266838.5752058922</v>
-      </c>
       <c r="D2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058924</v>
       </c>
       <c r="E2" t="n">
+        <v>254168.8888295108</v>
+      </c>
+      <c r="F2" t="n">
+        <v>254168.8888295108</v>
+      </c>
+      <c r="G2" t="n">
         <v>254168.8888295107</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>254168.8888295107</v>
       </c>
-      <c r="G2" t="n">
-        <v>254168.8888295108</v>
-      </c>
-      <c r="H2" t="n">
-        <v>254168.8888295108</v>
-      </c>
       <c r="I2" t="n">
-        <v>254168.8888295108</v>
+        <v>254168.8888295109</v>
       </c>
       <c r="J2" t="n">
-        <v>254168.8888295108</v>
+        <v>254168.8888295107</v>
       </c>
       <c r="K2" t="n">
-        <v>264434.3892744259</v>
+        <v>264434.389274426</v>
       </c>
       <c r="L2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="M2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="N2" t="n">
         <v>266838.5752058922</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284586</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086679</v>
+        <v>10342.9068008667</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284582</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
+        <v>15045.66962143904</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15045.66962143916</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15045.66962143914</v>
+      </c>
+      <c r="H4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563567</v>
+        <v>33210.29213563572</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26479,37 +26479,37 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-562763.3403232843</v>
+        <v>-562763.3403232845</v>
       </c>
       <c r="C6" t="n">
-        <v>27204.53889126013</v>
+        <v>27204.53889126019</v>
       </c>
       <c r="D6" t="n">
-        <v>27204.53889126018</v>
+        <v>27204.53889126032</v>
       </c>
       <c r="E6" t="n">
-        <v>-378024.1432175409</v>
+        <v>-378121.602343513</v>
       </c>
       <c r="F6" t="n">
-        <v>147135.893259355</v>
+        <v>147038.4341333829</v>
       </c>
       <c r="G6" t="n">
-        <v>147135.8932593551</v>
+        <v>147038.4341333828</v>
       </c>
       <c r="H6" t="n">
-        <v>147135.893259355</v>
+        <v>147038.4341333828</v>
       </c>
       <c r="I6" t="n">
-        <v>147135.893259355</v>
+        <v>147038.434133383</v>
       </c>
       <c r="J6" t="n">
-        <v>-29287.32593323789</v>
+        <v>-29384.78505921</v>
       </c>
       <c r="K6" t="n">
-        <v>90433.28330572174</v>
+        <v>90414.78956778724</v>
       </c>
       <c r="L6" t="n">
         <v>121316.1057222404</v>
       </c>
       <c r="M6" t="n">
-        <v>-3142.002710729896</v>
+        <v>-3142.002710730012</v>
       </c>
       <c r="N6" t="n">
-        <v>131659.0125231072</v>
+        <v>131659.0125231073</v>
       </c>
       <c r="O6" t="n">
         <v>131659.0125231072</v>
       </c>
       <c r="P6" t="n">
-        <v>87496.40722026149</v>
+        <v>87496.40722026142</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26759,25 +26759,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108348</v>
+        <v>12.92863350108338</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855728</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
     </row>
     <row r="3">
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>52.4216295793168</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>126.6313418847989</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>131.4589062730068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>17.49548950841384</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>234.8140598713229</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>266.6413968852564</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>97.20946547608808</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>33.57113583274258</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>347.5418920935027</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>198.7378034238513</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>266.1217421845909</v>
+        <v>100.5952497253701</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-4.361311312095495e-12</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35495,10 +35495,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35978,13 +35978,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412269</v>
+        <v>67.71102679412283</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584679</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084859</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341609</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403581</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043192</v>
+        <v>94.42895660043206</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,13 +37239,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,13 +37476,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414415</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37798,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37865,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,16 +38102,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
